--- a/biology/Botanique/Achyranthes_aspera/Achyranthes_aspera.xlsx
+++ b/biology/Botanique/Achyranthes_aspera/Achyranthes_aspera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achyranthes aspera L. est une espèce de plantes tropicales de la famille des Amaranthaceae et du genre Achyranthes.
 Elle est nommée vernaculairement " queue de rat " en Nouvelle-Calédonie à cause de son inflorescence. 
@@ -512,9 +524,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Nord Cameroun, les feuilles sont utilisées dans la confection des sauces. La plante y est consommée par le bétail, avant sa floraison[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Nord Cameroun, les feuilles sont utilisées dans la confection des sauces. La plante y est consommée par le bétail, avant sa floraison.
 </t>
         </is>
       </c>
@@ -543,17 +557,19 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 septembre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 septembre 2017) :
 variété Achyranthes aspera var. aspera
 variété Achyranthes aspera var. nigro-olivacea
 variété Achyranthes aspera var. obtusifolia
 variété Achyranthes aspera var. pubescens
 variété Achyranthes aspera var. sicula
-Selon NCBI  (21 septembre 2017)[4] :
+Selon NCBI  (21 septembre 2017) :
 variété Achyranthes aspera var. sicula
-Selon The Plant List            (21 septembre 2017)[1] :
+Selon The Plant List            (21 septembre 2017) :
 variété Achyranthes aspera var. borbonica (Willd. ex Schult.) C.C.Towns.
 variété Achyranthes aspera var. indica L.
 variété Achyranthes aspera var. porphyristachya (Wall. ex Moq.) Hook.f.
@@ -561,7 +577,7 @@
 variété Achyranthes aspera var. rubrofusca (Wight) Hook.f.
 variété Achyranthes aspera var. sicula L.
 variété Achyranthes aspera var. velutina (Hook. &amp; Arn.) C.C.Towns.
-Selon Tropicos                                           (21 septembre 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Achyranthes aspera var. albissima Suess.
 variété Achyranthes aspera var. argentea (Lam.) Boiss.
 variété Achyranthes aspera var. aspera
